--- a/Test cases and Postman requests/Project IT Bootcamp.xlsx
+++ b/Test cases and Postman requests/Project IT Bootcamp.xlsx
@@ -3,13 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFAC3EA-4EDE-4A92-87C9-3ED1DEC8A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E2371-FFD0-4E2C-A4AD-923B6AFABBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Naziv test scenaria" sheetId="2" r:id="rId2"/>
+    <sheet name="Text Box Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Web Tables Cases" sheetId="4" r:id="rId3"/>
+    <sheet name="Progress Bar Cases" sheetId="5" r:id="rId4"/>
+    <sheet name="Menu Cases" sheetId="6" r:id="rId5"/>
+    <sheet name="Select Menu Cases" sheetId="7" r:id="rId6"/>
+    <sheet name="Alerts Cases" sheetId="8" r:id="rId7"/>
+    <sheet name="Auto Complete Cases" sheetId="10" r:id="rId8"/>
+    <sheet name="Bug Reports" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="148">
   <si>
     <t>Scenarios</t>
   </si>
@@ -369,13 +376,109 @@
   </si>
   <si>
     <t>Message "You entered Nenad" is displayed</t>
+  </si>
+  <si>
+    <t>7. Auto Complete tile</t>
+  </si>
+  <si>
+    <t>AC:01</t>
+  </si>
+  <si>
+    <t>Verify user can delete color from text field</t>
+  </si>
+  <si>
+    <t>2. Click on "Auto Complete"  tile on the left side of the page</t>
+  </si>
+  <si>
+    <t>3. Enter text in field to enter one color name</t>
+  </si>
+  <si>
+    <t>text: Green</t>
+  </si>
+  <si>
+    <t>Text has been entered in field successfully</t>
+  </si>
+  <si>
+    <t>User can click on text-box and delete entered text</t>
+  </si>
+  <si>
+    <t>User cannot delete the text until they refresh the page</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>BR:01</t>
+  </si>
+  <si>
+    <t>BR- 01</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Repro rate</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Bug Name</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>User can't delete entered color name in the field</t>
+  </si>
+  <si>
+    <t>In text field where user can enter single color name, after they enteres text for one color name they can't delete color  that text until they refresh page</t>
+  </si>
+  <si>
+    <t>1.Open web browser and open webpage</t>
+  </si>
+  <si>
+    <t>webpage: https://demoqa.com</t>
+  </si>
+  <si>
+    <t>2. Click on Widgets span</t>
+  </si>
+  <si>
+    <t>3. Click on "Auto Complete"  tile on the left side of the page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Delete color name user entered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Delete entered text in the field </t>
+  </si>
+  <si>
+    <t>4. Enter text in field for single color name and click on entered text in the dropdown</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +515,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,8 +592,19 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -455,13 +627,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,11 +709,70 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{5CC9EF2D-1927-4E42-96C9-BBD4009BB47C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,6 +785,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>128986</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>430450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3230721</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8411FFE0-A3DD-A196-205A-4FA1117F1706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15934533" y="3020059"/>
+          <a:ext cx="3105545" cy="1602989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,6 +1237,14 @@
       </c>
       <c r="D16" s="15"/>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -927,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,7 +1372,7 @@
       <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1091,598 +1417,96 @@
       <c r="E23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" t="s">
-        <v>64</v>
-      </c>
-      <c r="F71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" t="s">
-        <v>73</v>
-      </c>
-      <c r="E81" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>74</v>
-      </c>
-      <c r="D82" t="s">
-        <v>75</v>
-      </c>
-      <c r="E82" t="s">
-        <v>75</v>
-      </c>
-      <c r="F82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>80</v>
-      </c>
-      <c r="D91" t="s">
-        <v>81</v>
-      </c>
-      <c r="E91" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" t="s">
-        <v>83</v>
-      </c>
-      <c r="E92" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" t="s">
-        <v>86</v>
-      </c>
-      <c r="E93" t="s">
-        <v>86</v>
-      </c>
-      <c r="F93" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" t="s">
-        <v>81</v>
-      </c>
-      <c r="E102" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" t="s">
-        <v>85</v>
-      </c>
-      <c r="E103" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" t="s">
-        <v>90</v>
-      </c>
-      <c r="E104" t="s">
-        <v>90</v>
-      </c>
-      <c r="F104" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>96</v>
-      </c>
-      <c r="C113" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>96</v>
-      </c>
-      <c r="C122" t="s">
-        <v>101</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F122" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>96</v>
-      </c>
-      <c r="C131" t="s">
-        <v>105</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
-        <v>107</v>
-      </c>
-      <c r="D132" t="s">
-        <v>108</v>
-      </c>
-      <c r="E132" t="s">
-        <v>108</v>
-      </c>
-      <c r="F132" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>96</v>
-      </c>
-      <c r="C141" t="s">
-        <v>111</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>113</v>
-      </c>
-      <c r="C142" t="s">
-        <v>114</v>
-      </c>
-      <c r="D142" t="s">
-        <v>115</v>
-      </c>
-      <c r="E142" t="s">
-        <v>115</v>
-      </c>
-      <c r="F142" t="s">
-        <v>23</v>
-      </c>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="85" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="11"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="113" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="116" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="11"/>
+    </row>
+    <row r="122" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="125" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="131" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+      <c r="B135" s="11"/>
+    </row>
+    <row r="141" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1696,4 +1520,2105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0F780E-04FF-4B18-A910-DD68EFF0FD11}">
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="85" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="11"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="113" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="116" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="11"/>
+    </row>
+    <row r="122" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="125" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="131" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+      <c r="B135" s="11"/>
+    </row>
+    <row r="141" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C26D4FF-B2A6-434B-96CE-A5C15F2AC984}">
+  <dimension ref="A1:H142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="51" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" t="s">
+        <v>90</v>
+      </c>
+      <c r="E104" t="s">
+        <v>90</v>
+      </c>
+      <c r="F104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F122" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>96</v>
+      </c>
+      <c r="C131" t="s">
+        <v>105</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+      <c r="D132" t="s">
+        <v>108</v>
+      </c>
+      <c r="E132" t="s">
+        <v>108</v>
+      </c>
+      <c r="F132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" t="s">
+        <v>111</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" t="s">
+        <v>114</v>
+      </c>
+      <c r="D142" t="s">
+        <v>115</v>
+      </c>
+      <c r="E142" t="s">
+        <v>115</v>
+      </c>
+      <c r="F142" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E97EA46-D969-4978-A334-CE76C670AF80}">
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="80" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="11"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="113" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="116" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="11"/>
+    </row>
+    <row r="122" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="125" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="131" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+      <c r="B135" s="11"/>
+    </row>
+    <row r="141" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E07359-5C9A-460F-8438-5AE8986D65A9}">
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="85" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="113" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="116" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="11"/>
+    </row>
+    <row r="122" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="125" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="131" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+      <c r="B135" s="11"/>
+    </row>
+    <row r="141" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F0BEBC-B92D-41BE-927B-54272A35A63D}">
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="85" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="11"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="113" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949F7D38-9DDC-4AAB-BEBD-D0C7616FE495}">
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="85" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="11"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="113" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D4B5B8-A5EB-476A-B73C-BF6C99CF9FF3}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="20"/>
+    <col min="2" max="2" width="23.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="50.21875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="12.5546875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="29"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="34"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="D6" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="24">
+        <v>1</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="21"/>
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>